--- a/data/somatic_variable_names_with_baseline.xlsx
+++ b/data/somatic_variable_names_with_baseline.xlsx
@@ -15,6 +15,8 @@
     <sheet name="baseline" sheetId="6" r:id="rId6"/>
     <sheet name="birth" sheetId="7" r:id="rId7"/>
     <sheet name="civ_stat" sheetId="8" r:id="rId8"/>
+    <sheet name="PC" sheetId="9" r:id="rId9"/>
+    <sheet name="metaPRS_ldpred" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -404,9 +406,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,51 +417,58 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mother</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>M_Anoreksi</t>
+          <t>metaPRS_ldpred</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>prs_ldpred2_ADHD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M_Skizofreni</t>
+          <t>prs_ldpred2_Ano</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M_Bipolar</t>
+          <t>prs_ldpred2_ASD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M_MDD</t>
+          <t>prs_ldpred2_BP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M_ADHD</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>prs_ldpred2_MDD</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>prs_ldpred2_SCZ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -470,53 +479,53 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>patient</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P_Skizofreni</t>
+          <t>mother</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>M_Anoreksi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_ASD</t>
+          <t>M_Skizofreni</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_Bipolar</t>
+          <t>M_Bipolar</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_MDD</t>
+          <t>M_MDD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_ADHD</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+          <t>M_ADHD</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,30 +534,51 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>educ</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>highest_education_maternal_3cat</t>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_Skizofreni</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>highest_education_paternal_3cat</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>P_ASD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_Bipolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_MDD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_ADHD</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -559,32 +589,32 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>income</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>income_maternal_quintiles</t>
+          <t>educ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>highest_education_maternal_3cat</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>income_paternal_quintiles</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+          <t>highest_education_paternal_3cat</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -593,20 +623,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anbragt</t>
+          <t>income</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>income_maternal_quintiles</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>income_paternal_quintiles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anbragt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>gender</t>
         </is>
       </c>
@@ -703,4 +767,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>